--- a/input_tool/edu_table_helper.xlsx
+++ b/input_tool/edu_table_helper.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann SAY\Desktop\edu_analysistools - Copy\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5595E82C-3D6F-40CB-B025-9766D83B1BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
     <sheet name="out_of_school" sheetId="3" r:id="rId2"/>
     <sheet name="ece" sheetId="4" r:id="rId3"/>
     <sheet name="level1" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>tab</t>
   </si>
@@ -81,9 +80,6 @@
     <t>Individual attending school - Binary</t>
   </si>
   <si>
-    <t>Individual whose education was disrupted</t>
-  </si>
-  <si>
     <t>Individual whose education was disrupted due to teacher's absence - Binary</t>
   </si>
   <si>
@@ -96,12 +92,6 @@
     <t>Individual whose education was disrupted due to the school being occupied by displaced persons</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
     <t>out_of_school</t>
   </si>
   <si>
@@ -114,27 +104,6 @@
     <t>Individual not attending school - Binary</t>
   </si>
   <si>
-    <t>profile_core</t>
-  </si>
-  <si>
-    <t>child_work_outside</t>
-  </si>
-  <si>
-    <t>costs</t>
-  </si>
-  <si>
-    <t>lack_accessible_school</t>
-  </si>
-  <si>
-    <t>lack_interest</t>
-  </si>
-  <si>
-    <t>school_closed_conflict</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>School Attendance Profile</t>
   </si>
   <si>
@@ -151,6 +120,24 @@
   </si>
   <si>
     <t>Disruptions</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>School has been closed due to conflict</t>
+  </si>
+  <si>
+    <t>There is a lack of interest/Education is not a priority either for the child or the household</t>
+  </si>
+  <si>
+    <t>Lack of appropriate and accessible school</t>
+  </si>
+  <si>
+    <t>Cannot afford education-related costs (e.g. tuition, supplies, transportation)</t>
+  </si>
+  <si>
+    <t>Child participating in income generating activities outside of the home</t>
   </si>
 </sst>
 </file>
@@ -573,10 +560,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -584,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -592,12 +579,12 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -609,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +630,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -652,16 +639,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -669,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -677,22 +664,22 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +722,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -750,10 +737,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -761,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -778,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +796,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -824,10 +811,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -835,173 +822,12 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B836A5-CD3C-4C8B-A8E2-363B608EF7BB}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
